--- a/SV/testplan.xlsx
+++ b/SV/testplan.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="testplan" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="bug_report" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t xml:space="preserve">Test Category</t>
   </si>
@@ -47,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSERTION</t>
   </si>
   <si>
     <t xml:space="preserve">Reset and Initialization</t>
@@ -180,7 +184,7 @@
     <t xml:space="preserve">Confirm that the most significant bit (MSB) is sent first.</t>
   </si>
   <si>
-    <t xml:space="preserve">msb_first</t>
+    <t xml:space="preserve">msb_first_check</t>
   </si>
   <si>
     <t xml:space="preserve">A specific data value, like 12'hF00, is sent.</t>
@@ -189,40 +193,103 @@
     <t xml:space="preserve">An assertion should verify that the mosi signal transitions according to the MSB-first order. The mosi line should transition from high to low for the first 4 bits when sending 12'hF00. The slave's dout should show 12'hF00 shifted in bit-by-bit, with the MSB (1) arriving first.</t>
   </si>
   <si>
+    <t xml:space="preserve">Verify that all outputs remain stable when no operation is asserted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_operation_check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req &lt;= 2’b00; din_master &lt;= rand(); din_slave =rand();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outputs should hold their value during req = 0 which indicates no operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait Duration and Chip Select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if cs is held low for the specified wait_duration before and after the data transfer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait_duration_check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">req &lt;= 2'b01; wait_duration &lt;= 8'd10;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An assertion should check that the cs signal remains low for 10 clock cycles before the data transfer begins and for another 10 cycles after the last data bit is sent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assert done_tx, done_rx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done_tx_rx_check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@negedge sclk |=&gt; done_rx, @posgedge sclk |=&gt; done_tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@negedge sclk, done_tx/done_rx should be asserted at the next posedge of clk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Signals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sclk should update cs when </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sclk_cs_check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@negedge sclk @posedge clk |=&gt; cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@negedge sclk_en, cs should be asserted at the next posedge of clk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aiman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sclk should update sclk_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sclk_sclk_en_check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@negedge sclk @posedge clk if (dout == din) |=&gt; !sclk_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@posedge sclk, if dout equals to din, sclk_en should be deasserted at the next posedge of clk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dout value should update following miso and mosi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dout_miso_mosi_check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@negedge sclk if(miso) if(mosi) |=&gt; dout++ / dout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@negedge sclk, dout should update following the value of miso or mosi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEQUENCE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">Randomised Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx_rx_rand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">din_master &lt;= rand(); din_slave =rand();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randomise the input and output should be following the input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aiman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req 00</t>
+    <t xml:space="preserve">No operation test </t>
   </si>
   <si>
     <t xml:space="preserve">no_operation</t>
   </si>
   <si>
-    <t xml:space="preserve">Req &lt;= 2’b00; din_master &lt;= rand(); din_slave =rand();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outputs should hold their value during req = 0 which indicates no operation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Master-Slave Communication (TX)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoreboard</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that spi_master can successfully transmit data to spi_slave.</t>
@@ -268,19 +335,16 @@
     <t xml:space="preserve">The scoreboard should verify that dout_master receives 12'h5A5 from the slave, and dout_slave receives 12'hA5A from the master. Both done_tx and done_rx flags should assert high.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wait Duration and Chip Select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if cs is held low for the specified wait_duration before and after the data transfer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait_duration_check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">req &lt;= 2'b01; wait_duration &lt;= 8'd10;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An assertion should check that the cs signal remains low for 10 clock cycles before the data transfer begins and for another 10 cycles after the last data bit is sent.</t>
+    <t xml:space="preserve">Randomised Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_rx_rand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">din_master &lt;= rand(); din_slave =rand();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randomise the input and output should be following the input</t>
   </si>
   <si>
     <t xml:space="preserve">Error Handling (Mid-Transfer Reset)</t>
@@ -331,58 +395,49 @@
     <t xml:space="preserve">The scoreboard should verify that the data transfer is successful with the new SPI_TRF_BIT width. The data counters and shift registers should correctly handle the new range, for example, a 16-bit transfer if the parameter is set to 16.</t>
   </si>
   <si>
-    <t xml:space="preserve">Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assert done_tx, done_rx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">done_tx_rx_check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@negedge sclk_en |=&gt; done_tx/done_rx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@negedge sclk_en, done_tx/done_rx should be asserted at the next posedge of clk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Signals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sclk _en should update cs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sclk_en_cs_check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@negedge sclk_en |=&gt; cs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@negedge sclk_en, cs should be asserted at the next posedge of clk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dout value should update following miso and mosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dout_miso_mosi_check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@negedge sclk if(miso) if(mosi) |→ dout++ / dout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@negedge sclk, dout should update following the value of miso or mosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sclk should update sclk_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sclk_sclk_en_check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@posedge sclk if (dout == din) |=&gt; !sclk_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@posedge sclk, if dout equals to din, sclk_en should be deasserted at the next posedge of clk</t>
+    <t xml:space="preserve">Observant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obsersations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heirachy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System not responding to req change during transmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambigous Behaviour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When req is changed during mid transfer, system continues last req operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spi_master.v :104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done_rx will only assert at the next sclk negedge instead of next clk posedge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latency Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done_rx has missing stage to handle the done flag like tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spi_master.v :160</t>
   </si>
 </sst>
 </file>
@@ -438,15 +493,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -512,6 +573,27 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="thin"/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -525,8 +607,15 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
+      <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
@@ -557,7 +646,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -574,6 +663,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -586,8 +679,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -602,10 +699,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -618,27 +711,59 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -651,6 +776,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFDBB6"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -659,12 +844,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ17"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -677,471 +862,538 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="61.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="59.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="8" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="4" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AMJ1" s="7"/>
-    </row>
-    <row r="2" s="10" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="AMJ1" s="8"/>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="AMJ2" s="8"/>
+    </row>
+    <row r="3" s="12" customFormat="true" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11" t="n">
         <v>1.1</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="12" t="n">
+      <c r="H3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="AMJ3" s="4"/>
+    </row>
+    <row r="4" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="AMJ4" s="4"/>
+    </row>
+    <row r="5" s="18" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19"/>
+      <c r="B5" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="AMJ5" s="4"/>
+    </row>
+    <row r="6" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19"/>
+      <c r="B6" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" s="15" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
-      <c r="B4" s="2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="I6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ6" s="4"/>
+    </row>
+    <row r="7" s="12" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="n">
+      <c r="AMJ7" s="4"/>
+    </row>
+    <row r="8" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="23" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AMJ8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="AMJ12" s="28"/>
+    </row>
+    <row r="13" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19"/>
+      <c r="B13" s="2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ13" s="4"/>
+    </row>
+    <row r="14" s="12" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ14" s="4"/>
+    </row>
+    <row r="15" s="12" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ15" s="4"/>
+    </row>
+    <row r="16" s="12" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ16" s="4"/>
+    </row>
+    <row r="17" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
-      <c r="B6" s="2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" s="10" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AMJ8" s="0"/>
-    </row>
-    <row r="9" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AMJ9" s="0"/>
-    </row>
-    <row r="10" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="9" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="I17" s="20"/>
+      <c r="AMJ17" s="4"/>
+    </row>
+    <row r="18" s="12" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="9" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="2" t="n">
+      <c r="D18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AMJ18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>7.2</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" s="10" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="9" t="n">
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" s="12" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="11" t="n">
         <v>8.1</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AMJ13" s="0"/>
-    </row>
-    <row r="14" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="14" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AMJ14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="C20" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="D20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
+      <c r="E20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AMJ20" s="4"/>
+    </row>
+    <row r="21" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A12:I12"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1150,4 +1402,94 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="64.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/SV/testplan.xlsx
+++ b/SV/testplan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
   <si>
     <t xml:space="preserve">Test Category</t>
   </si>
@@ -280,6 +280,9 @@
     <t xml:space="preserve">SEQUENCE</t>
   </si>
   <si>
+    <t xml:space="preserve">Communication</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sequence</t>
   </si>
   <si>
@@ -410,7 +413,7 @@
     <t xml:space="preserve">Note</t>
   </si>
   <si>
-    <t xml:space="preserve">Heirachy</t>
+    <t xml:space="preserve">Trace</t>
   </si>
   <si>
     <t xml:space="preserve">System not responding to req change during transmission</t>
@@ -434,10 +437,25 @@
     <t xml:space="preserve">Latency Improvement</t>
   </si>
   <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
     <t xml:space="preserve">done_rx has missing stage to handle the done flag like tx</t>
   </si>
   <si>
     <t xml:space="preserve">spi_master.v :160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miso still active while req is 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spec Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output is correct when system is treated as a black box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miso_still_active_21945.rc</t>
   </si>
 </sst>
 </file>
@@ -507,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -617,6 +635,34 @@
       <left/>
       <right style="hair"/>
       <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -646,7 +692,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -763,7 +809,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -849,7 +907,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,12 +1079,12 @@
       </c>
       <c r="AMJ6" s="4"/>
     </row>
-    <row r="7" s="12" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="12" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>11</v>
@@ -1053,7 +1111,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="23" t="n">
-        <v>9.1</v>
+        <v>4.1</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>11</v>
@@ -1080,7 +1138,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>10.1</v>
+        <v>5.1</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -1103,7 +1161,7 @@
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="n">
-        <v>10.2</v>
+        <v>5.2</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -1126,7 +1184,7 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="n">
-        <v>10.3</v>
+        <v>5.3</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -1162,18 +1220,20 @@
       <c r="AMJ12" s="28"/>
     </row>
     <row r="13" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
-      <c r="B13" s="2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="29" t="s">
         <v>56</v>
       </c>
+      <c r="B13" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>29</v>
@@ -1181,122 +1241,123 @@
       <c r="G13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="29" t="n">
+      <c r="I13" s="20" t="n">
         <v>1</v>
       </c>
       <c r="AMJ13" s="4"/>
     </row>
     <row r="14" s="12" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="A14" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="B14" s="19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="13" t="n">
+      <c r="I14" s="20" t="n">
         <v>1</v>
       </c>
       <c r="AMJ14" s="4"/>
     </row>
     <row r="15" s="12" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="A15" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="B15" s="19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="13" t="n">
+      <c r="I15" s="20" t="n">
         <v>1</v>
       </c>
       <c r="AMJ15" s="4"/>
     </row>
     <row r="16" s="12" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="A16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="B16" s="19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="F16" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="13" t="n">
+      <c r="I16" s="20" t="n">
         <v>1</v>
       </c>
       <c r="AMJ16" s="4"/>
     </row>
     <row r="17" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
-        <v>2.3</v>
+      <c r="A17" s="29"/>
+      <c r="B17" s="19" t="n">
+        <v>6.5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>46</v>
@@ -1304,85 +1365,85 @@
       <c r="I17" s="20"/>
       <c r="AMJ17" s="4"/>
     </row>
-    <row r="18" s="12" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="12" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="11" t="n">
         <v>7.1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AMJ18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>7.2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" s="12" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="11" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" s="32" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="31" t="n">
         <v>8.1</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="F20" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AMJ20" s="4"/>
+      <c r="AMJ20" s="8"/>
     </row>
     <row r="21" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1409,10 +1470,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1420,27 +1481,27 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="64.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,19 +1509,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,19 +1529,39 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>108</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/SV/testplan.xlsx
+++ b/SV/testplan.xlsx
@@ -689,7 +689,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -782,7 +782,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -811,6 +819,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,13 +908,13 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="20.98"/>
@@ -1127,6 +1139,9 @@
       <c r="H8" s="22" t="s">
         <v>16</v>
       </c>
+      <c r="I8" s="23" t="n">
+        <v>0.5</v>
+      </c>
       <c r="AMJ8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,7 +1160,7 @@
       <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="24" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1203,23 +1218,26 @@
       <c r="H11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="I11" s="25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="AMJ12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="AMJ12" s="27"/>
     </row>
     <row r="13" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="18" t="n">
@@ -1243,13 +1261,13 @@
       <c r="H13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="27" t="n">
+      <c r="I13" s="29" t="n">
         <v>1</v>
       </c>
       <c r="AMJ13" s="4"/>
     </row>
     <row r="14" s="12" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="18" t="n">
@@ -1273,13 +1291,13 @@
       <c r="H14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="27" t="n">
+      <c r="I14" s="29" t="n">
         <v>1</v>
       </c>
       <c r="AMJ14" s="4"/>
     </row>
     <row r="15" s="12" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="18" t="n">
@@ -1303,13 +1321,13 @@
       <c r="H15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="27" t="n">
+      <c r="I15" s="29" t="n">
         <v>1</v>
       </c>
       <c r="AMJ15" s="4"/>
     </row>
     <row r="16" s="12" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="18" t="n">
@@ -1333,13 +1351,13 @@
       <c r="H16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="27" t="n">
+      <c r="I16" s="29" t="n">
         <v>1</v>
       </c>
       <c r="AMJ16" s="4"/>
     </row>
     <row r="17" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="18" t="n">
         <v>6.5</v>
       </c>
@@ -1352,7 +1370,7 @@
       <c r="E17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="24" t="s">
         <v>77</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1361,7 +1379,7 @@
       <c r="H17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="27"/>
+      <c r="I17" s="29"/>
       <c r="AMJ17" s="4"/>
     </row>
     <row r="18" s="12" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,30 +1441,33 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" s="30" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+    <row r="20" s="32" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="29" t="n">
+      <c r="B20" s="31" t="n">
         <v>8.1</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="32" t="s">
         <v>46</v>
+      </c>
+      <c r="I20" s="33" t="n">
+        <v>1</v>
       </c>
       <c r="AMJ20" s="8"/>
     </row>
@@ -1478,12 +1499,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="64.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.94"/>

--- a/SV/testplan.xlsx
+++ b/SV/testplan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t xml:space="preserve">Test Category</t>
   </si>
@@ -235,6 +235,9 @@
     <t xml:space="preserve">@negedge sclk, done_tx/done_rx should be asserted at the next posedge of clk </t>
   </si>
   <si>
+    <t xml:space="preserve">Duplex not done</t>
+  </si>
+  <si>
     <t xml:space="preserve">Internal Signals</t>
   </si>
   <si>
@@ -248,9 +251,6 @@
   </si>
   <si>
     <t xml:space="preserve">@negedge sclk_en, cs should be asserted at the next posedge of clk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aiman</t>
   </si>
   <si>
     <t xml:space="preserve">sclk should update sclk_en</t>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t xml:space="preserve">Randomise the input and output should be following the input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aiman</t>
   </si>
   <si>
     <t xml:space="preserve">Error Handling (Mid-Transfer Reset)</t>
@@ -522,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -639,6 +642,20 @@
       <left/>
       <right style="hair"/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -689,7 +706,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -818,11 +835,31 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -908,7 +945,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -920,7 +957,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="61.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="59.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="8" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="11" style="3" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="4" width="11.52"/>
   </cols>
   <sheetData>
@@ -1142,11 +1181,14 @@
       <c r="I8" s="23" t="n">
         <v>0.5</v>
       </c>
+      <c r="J8" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="AMJ8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>5.1</v>
@@ -1155,19 +1197,25 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="I9" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,44 +1425,46 @@
         <v>78</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="I17" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="AMJ17" s="4"/>
     </row>
-    <row r="18" s="12" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="11" t="n">
+    <row r="18" s="16" customFormat="true" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="31" t="n">
         <v>7.1</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="F18" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="19" t="n">
+      <c r="I18" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ18" s="4"/>
+      <c r="AMJ18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>7.2</v>
@@ -1423,50 +1473,50 @@
         <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" s="32" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="s">
+      <c r="I19" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="31" t="n">
+    </row>
+    <row r="20" s="37" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="36" t="n">
         <v>8.1</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="D20" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="E20" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="F20" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="33" t="n">
+      <c r="G20" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AMJ20" s="8"/>
@@ -1502,7 +1552,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
@@ -1512,22 +1562,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,19 +1585,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,19 +1605,19 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,19 +1625,19 @@
         <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
